--- a/Web Development.xlsx
+++ b/Web Development.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Osama\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programming\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C862272-41FC-4FF2-8971-1AA7A838C436}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10C0ED9C-C94B-4A41-8D6F-CA38812FA0D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="46">
   <si>
     <t>Subject</t>
   </si>
@@ -160,6 +160,9 @@
   </si>
   <si>
     <t>Code With Harry</t>
+  </si>
+  <si>
+    <t>figma</t>
   </si>
 </sst>
 </file>
@@ -308,16 +311,16 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -601,10 +604,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:K18"/>
+  <dimension ref="A2:K19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -620,12 +623,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
@@ -633,10 +636,10 @@
       <c r="K2" s="2"/>
     </row>
     <row r="3" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
@@ -644,10 +647,10 @@
       <c r="K3" s="2"/>
     </row>
     <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
       <c r="G4" s="10" t="s">
         <v>33</v>
       </c>
@@ -734,7 +737,7 @@
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="11" t="s">
         <v>40</v>
       </c>
       <c r="C10" s="5" t="s">
@@ -785,7 +788,7 @@
       <c r="A13" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="12" t="s">
         <v>42</v>
       </c>
       <c r="C13" s="8" t="s">
@@ -847,6 +850,11 @@
       </c>
       <c r="E18" s="1" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
